--- a/datamap_1.xlsx
+++ b/datamap_1.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/USA-report-2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctoruno\Documents\GitHub\USA24-dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="636" documentId="8_{CF6A4C19-AF3C-4E54-AF2E-FB4FFFA1AA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D7698EF-42BF-476C-93EE-1C7DCE9B7637}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F475EA5-C8A5-4AA9-83CB-98A5A60FDA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26925" yWindow="2130" windowWidth="17280" windowHeight="8880" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Map" sheetId="18" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Map'!$A$1:$C$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Map'!$A$1:$D$130</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="297">
   <si>
     <t>In your opinion, most judges decide cases according to:</t>
   </si>
@@ -1340,27 +1340,6 @@
     <t>CAR_q74</t>
   </si>
   <si>
-    <t>USA_ q19a</t>
-  </si>
-  <si>
-    <t>USA_ q19b</t>
-  </si>
-  <si>
-    <t>USA_ q19c</t>
-  </si>
-  <si>
-    <t>USA_ q19d</t>
-  </si>
-  <si>
-    <t>USA_ q19e</t>
-  </si>
-  <si>
-    <t>USA_ q19f</t>
-  </si>
-  <si>
-    <t>USA_ q20a</t>
-  </si>
-  <si>
     <t>USA_q20b</t>
   </si>
   <si>
@@ -1716,6 +1695,214 @@
   </si>
   <si>
     <t>Electoral Participation</t>
+  </si>
+  <si>
+    <t>USA_q19a</t>
+  </si>
+  <si>
+    <t>USA_q19b</t>
+  </si>
+  <si>
+    <t>USA_q19c</t>
+  </si>
+  <si>
+    <t>USA_q19d</t>
+  </si>
+  <si>
+    <t>USA_q19e</t>
+  </si>
+  <si>
+    <t>USA_q19f</t>
+  </si>
+  <si>
+    <t>USA_q20a</t>
+  </si>
+  <si>
+    <t>encoding</t>
+  </si>
+  <si>
+    <t>1=A lot
+2=Some
+3=A little
+4=No trust
+98=Don’t know
+99=Prefer not to answer</t>
+  </si>
+  <si>
+    <t>1=None
+2=Some of them
+3=Most of them
+4=All of them
+98=Don’t know
+99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>1=Yes
+2=No 
+98=Don’t know
+99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>1=Very likely
+2=Likely
+3=Unlikely
+4=Very unlikely
+98=Don’t know
+99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>1=What the government tells them to do
+2=What powerful private interests tell them to do
+3=What the law says
+98=Don’t know
+99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>1=The accusation is completely ignored by the authorities
+2=An investigation is opened, but it never reaches any conclusions
+3=The high-ranking government officer is prosecuted and punished (through fines, or time in prison)
+98=Don’t know
+99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>1=Strongly Agree
+2=Agree
+3=Disagree
+4=Strongly Disagree
+98=Don’t know
+99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>1=Always
+2=Often
+3=Rarely
+4=Never
+98=Don’t know
+99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>1=Very Good
+2=Good
+3=Neither good nor bad (fair)
+4=Bad
+5=Very Bad
+98=Don’t know
+99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>1=Approve
+2=Disapprove
+98=Don’t know
+99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>1=Very well
+2=Fairly well
+3=Fairly badly
+4=Very badly
+98=Don’t know
+99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>1=Agree very strongly with Statement 1
+2=Agree with Statement 1
+3=Agree with Statement 2
+4=Agree very strongly with Statement 2
+5=Agree with neither
+98=Don’t know
+99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>1=Accept the results as legitimate and support his presidency
+2=Accept the results as legitimate and oppose his presidency
+3=Not accept the results as legitimate but do nothing	
+4=Not accept the results as legitimate and take action to overturn them
+98=Don’t know
+99=Prefer not to answer</t>
+  </si>
+  <si>
+    <t>1=Daily	
+2=A few times a week	
+3=A few times a month	
+4=A few times a year
+5=Never
+98=Don’t know
+99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>1=Facebook
+2=X (Twitter)	
+3=Instagram	
+4=WhatsApp
+5=Tik Tok
+6=Other
+7=None (GO TO q27)
+98=Don’t know
+99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>1=Only once a day
+2=Several times a day
+3=At least 10 times a day
+4=A few times a week
+5=Never
+98=Don’t know
+99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>1=Daily
+2=Weekly
+3=Monthly
+4=Rarely
+5=Never
+98=Don’t know
+99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>1=Yes
+2=No
+98=Don’t know
+99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>1=Neutrality and lack of bias in reporting	
+2=Expertise and authority of the source in election matters
+3=Accessibility and ease of understanding the information
+4=Relevance to your local area or community
+5=Credibility and reliability of the source	
+6=Timeliness of information
+7=Alignment with your personal or political views
+8=Recommendations from friends, family, or community
+98=Don’t know
+99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>1=You are absolutely certain that you are registered to vote at your current address
+2=You are probably registered, but there is a chance your registration has lapsed (GO TO Regis2)
+3=You are not registered to vote at your current address	 (GO TO Regis2)
+98=Don’t know
+99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>1=Yes 
+2=No
+98=Don’t know
+99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>1=Voted
+2=Did not vote	
+3=Decline to answer
+98=Don’t know
+99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>1=Donald Trump
+2=Joe Biden
+3=Other
+4=No one
+98=Don’t know
+99=Prefer not to say</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1998,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1839,6 +2026,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2155,32 +2345,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="61" style="3" customWidth="1"/>
-    <col min="3" max="3" width="42" style="4" customWidth="1"/>
+    <col min="2" max="3" width="61" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>26</v>
       </c>
@@ -2188,10 +2381,13 @@
         <v>85</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>27</v>
       </c>
@@ -2199,10 +2395,13 @@
         <v>86</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
@@ -2210,10 +2409,13 @@
         <v>87</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
@@ -2221,10 +2423,13 @@
         <v>88</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
@@ -2232,10 +2437,13 @@
         <v>89</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
@@ -2243,10 +2451,13 @@
         <v>90</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
@@ -2254,10 +2465,13 @@
         <v>91</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>33</v>
       </c>
@@ -2265,10 +2479,13 @@
         <v>92</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>34</v>
       </c>
@@ -2276,10 +2493,13 @@
         <v>93</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>35</v>
       </c>
@@ -2287,10 +2507,13 @@
         <v>94</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="9" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>175</v>
       </c>
@@ -2298,10 +2521,13 @@
         <v>113</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>36</v>
       </c>
@@ -2309,10 +2535,13 @@
         <v>95</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>37</v>
       </c>
@@ -2320,10 +2549,13 @@
         <v>96</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>38</v>
       </c>
@@ -2331,10 +2563,13 @@
         <v>97</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>39</v>
       </c>
@@ -2342,10 +2577,13 @@
         <v>98</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>40</v>
       </c>
@@ -2353,10 +2591,13 @@
         <v>99</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
@@ -2364,10 +2605,13 @@
         <v>100</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
@@ -2375,21 +2619,27 @@
         <v>101</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="9" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>176</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C20" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -2397,10 +2647,13 @@
         <v>102</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -2408,10 +2661,13 @@
         <v>103</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -2419,10 +2675,13 @@
         <v>104</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -2430,10 +2689,13 @@
         <v>105</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -2441,21 +2703,27 @@
         <v>106</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="C26" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
@@ -2463,10 +2731,13 @@
         <v>108</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2474,10 +2745,13 @@
         <v>107</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2485,21 +2759,27 @@
         <v>0</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="C30" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -2507,10 +2787,13 @@
         <v>1</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
@@ -2518,10 +2801,13 @@
         <v>2</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>51</v>
       </c>
@@ -2529,10 +2815,13 @@
         <v>9</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
@@ -2540,10 +2829,13 @@
         <v>116</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>53</v>
       </c>
@@ -2551,10 +2843,13 @@
         <v>17</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>54</v>
       </c>
@@ -2562,10 +2857,13 @@
         <v>10</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>55</v>
       </c>
@@ -2573,10 +2871,13 @@
         <v>18</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -2584,21 +2885,27 @@
         <v>11</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C39" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>58</v>
       </c>
@@ -2606,10 +2913,13 @@
         <v>3</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>59</v>
       </c>
@@ -2617,10 +2927,13 @@
         <v>4</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,10 +2941,13 @@
         <v>5</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>61</v>
       </c>
@@ -2639,10 +2955,13 @@
         <v>25</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>62</v>
       </c>
@@ -2650,10 +2969,13 @@
         <v>6</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>63</v>
       </c>
@@ -2661,10 +2983,13 @@
         <v>7</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>64</v>
       </c>
@@ -2672,21 +2997,27 @@
         <v>8</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C47" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
@@ -2694,10 +3025,13 @@
         <v>117</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>67</v>
       </c>
@@ -2705,10 +3039,13 @@
         <v>118</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>68</v>
       </c>
@@ -2716,10 +3053,13 @@
         <v>119</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>69</v>
       </c>
@@ -2727,10 +3067,13 @@
         <v>120</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>70</v>
       </c>
@@ -2738,10 +3081,13 @@
         <v>121</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>71</v>
       </c>
@@ -2749,10 +3095,13 @@
         <v>122</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>72</v>
       </c>
@@ -2760,10 +3109,13 @@
         <v>123</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>73</v>
       </c>
@@ -2771,10 +3123,13 @@
         <v>124</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>177</v>
       </c>
@@ -2782,21 +3137,27 @@
         <v>125</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="C57" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>74</v>
       </c>
@@ -2804,10 +3165,13 @@
         <v>109</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>75</v>
       </c>
@@ -2815,10 +3179,13 @@
         <v>110</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>76</v>
       </c>
@@ -2826,10 +3193,13 @@
         <v>111</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>77</v>
       </c>
@@ -2837,10 +3207,13 @@
         <v>112</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>78</v>
       </c>
@@ -2848,10 +3221,13 @@
         <v>24</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>79</v>
       </c>
@@ -2859,10 +3235,13 @@
         <v>23</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>80</v>
       </c>
@@ -2870,10 +3249,13 @@
         <v>22</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>179</v>
       </c>
@@ -2881,21 +3263,27 @@
         <v>125</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="C66" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
@@ -2903,10 +3291,13 @@
         <v>82</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
@@ -2914,10 +3305,13 @@
         <v>83</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -2925,10 +3319,13 @@
         <v>84</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>181</v>
       </c>
@@ -2936,10 +3333,13 @@
         <v>127</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>182</v>
       </c>
@@ -2947,676 +3347,854 @@
         <v>128</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>183</v>
+        <v>266</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>187</v>
+        <v>270</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>188</v>
+        <v>271</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="8" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C81" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C92" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="D92"/>
+      <c r="C92" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>263</v>
+      </c>
       <c r="E92"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C103" s="10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="C103" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>155</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="C111" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>163</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C119" s="10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C119" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="8" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C126" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B127" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C127" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="B128" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>272</v>
+        <v>296</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C130" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:D130" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3869,21 +4447,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9CC4A80-4ECE-427A-8469-477A6F4D7F16}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B292CFA-1308-4FFE-AD60-D9B08AB144B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3908,9 +4485,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B292CFA-1308-4FFE-AD60-D9B08AB144B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9CC4A80-4ECE-427A-8469-477A6F4D7F16}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/datamap_1.xlsx
+++ b/datamap_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctoruno\Documents\GitHub\USA24-dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F475EA5-C8A5-4AA9-83CB-98A5A60FDA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA52328-6AB3-4DBF-8D5C-1C18D4412534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Map" sheetId="18" r:id="rId1"/>
@@ -2348,8 +2348,8 @@
   <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4189,12 +4189,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4447,20 +4449,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B292CFA-1308-4FFE-AD60-D9B08AB144B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9CC4A80-4ECE-427A-8469-477A6F4D7F16}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4485,12 +4488,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9CC4A80-4ECE-427A-8469-477A6F4D7F16}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B292CFA-1308-4FFE-AD60-D9B08AB144B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/datamap_1.xlsx
+++ b/datamap_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctoruno\Documents\GitHub\USA24-dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA52328-6AB3-4DBF-8D5C-1C18D4412534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD4C9E0-DEC1-41A8-8F34-ADF45DAEDDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Data Map" sheetId="18" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Map'!$A$1:$D$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Map'!$A$1:$D$127</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="294">
   <si>
     <t>In your opinion, most judges decide cases according to:</t>
   </si>
@@ -1430,15 +1430,6 @@
     <t>USA_q22e_G1</t>
   </si>
   <si>
-    <t>USA_q22f_G1</t>
-  </si>
-  <si>
-    <t>USA_q22g_G1</t>
-  </si>
-  <si>
-    <t>USA_q22h_G1</t>
-  </si>
-  <si>
     <t>USA_q22a_G2</t>
   </si>
   <si>
@@ -1452,15 +1443,6 @@
   </si>
   <si>
     <t>USA_q22e_G2</t>
-  </si>
-  <si>
-    <t>USA_q22f_G2</t>
-  </si>
-  <si>
-    <t>USA_q22g_G2</t>
-  </si>
-  <si>
-    <t>USA_q22h_G2</t>
   </si>
   <si>
     <t>USA_q23</t>
@@ -1903,6 +1885,15 @@
 4=No one
 98=Don’t know
 99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>USA_q22h</t>
+  </si>
+  <si>
+    <t>USA_q22g</t>
+  </si>
+  <si>
+    <t>USA_q22f</t>
   </si>
 </sst>
 </file>
@@ -2345,11 +2336,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,16 +2352,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2381,10 +2372,10 @@
         <v>85</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2395,10 +2386,10 @@
         <v>86</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2409,10 +2400,10 @@
         <v>87</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2423,10 +2414,10 @@
         <v>88</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2437,10 +2428,10 @@
         <v>89</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2451,10 +2442,10 @@
         <v>90</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2465,10 +2456,10 @@
         <v>91</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2479,10 +2470,10 @@
         <v>92</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2493,10 +2484,10 @@
         <v>93</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2507,10 +2498,10 @@
         <v>94</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="9" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2521,10 +2512,10 @@
         <v>113</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2535,10 +2526,10 @@
         <v>95</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2549,10 +2540,10 @@
         <v>96</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2563,10 +2554,10 @@
         <v>97</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2577,10 +2568,10 @@
         <v>98</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2591,10 +2582,10 @@
         <v>99</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2605,10 +2596,10 @@
         <v>100</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2619,10 +2610,10 @@
         <v>101</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="9" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2633,10 +2624,10 @@
         <v>114</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -2647,10 +2638,10 @@
         <v>102</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -2661,10 +2652,10 @@
         <v>103</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -2675,10 +2666,10 @@
         <v>104</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -2689,10 +2680,10 @@
         <v>105</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -2703,10 +2694,10 @@
         <v>106</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -2717,10 +2708,10 @@
         <v>115</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2731,10 +2722,10 @@
         <v>108</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2745,10 +2736,10 @@
         <v>107</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -2759,24 +2750,24 @@
         <v>0</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2787,10 +2778,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2801,10 +2792,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2815,10 +2806,10 @@
         <v>9</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2829,10 +2820,10 @@
         <v>116</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2843,10 +2834,10 @@
         <v>17</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2857,10 +2848,10 @@
         <v>10</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2871,10 +2862,10 @@
         <v>18</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2885,10 +2876,10 @@
         <v>11</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2899,10 +2890,10 @@
         <v>12</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2913,10 +2904,10 @@
         <v>3</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2927,10 +2918,10 @@
         <v>4</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2941,10 +2932,10 @@
         <v>5</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2955,10 +2946,10 @@
         <v>25</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2969,10 +2960,10 @@
         <v>6</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2983,10 +2974,10 @@
         <v>7</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2997,10 +2988,10 @@
         <v>8</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -3011,10 +3002,10 @@
         <v>19</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3025,10 +3016,10 @@
         <v>117</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3039,10 +3030,10 @@
         <v>118</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3053,10 +3044,10 @@
         <v>119</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3067,10 +3058,10 @@
         <v>120</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3081,10 +3072,10 @@
         <v>121</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3095,10 +3086,10 @@
         <v>122</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3109,10 +3100,10 @@
         <v>123</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3123,10 +3114,10 @@
         <v>124</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -3137,10 +3128,10 @@
         <v>125</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -3151,10 +3142,10 @@
         <v>126</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3165,10 +3156,10 @@
         <v>109</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3179,10 +3170,10 @@
         <v>110</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3193,10 +3184,10 @@
         <v>111</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3207,10 +3198,10 @@
         <v>112</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3221,10 +3212,10 @@
         <v>24</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3235,10 +3226,10 @@
         <v>23</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3249,10 +3240,10 @@
         <v>22</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -3263,10 +3254,10 @@
         <v>125</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -3277,10 +3268,10 @@
         <v>126</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -3291,10 +3282,10 @@
         <v>82</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -3305,10 +3296,10 @@
         <v>83</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -3319,10 +3310,10 @@
         <v>84</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -3333,10 +3324,10 @@
         <v>127</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -3347,108 +3338,108 @@
         <v>128</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>274</v>
-      </c>
       <c r="D74" s="10" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -3459,10 +3450,10 @@
         <v>130</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -3473,10 +3464,10 @@
         <v>131</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="8" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
@@ -3487,10 +3478,10 @@
         <v>132</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -3501,10 +3492,10 @@
         <v>133</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -3515,10 +3506,10 @@
         <v>134</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -3529,10 +3520,10 @@
         <v>135</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -3543,10 +3534,10 @@
         <v>136</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -3557,10 +3548,10 @@
         <v>137</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -3571,10 +3562,10 @@
         <v>138</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -3585,10 +3576,10 @@
         <v>139</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -3599,10 +3590,10 @@
         <v>140</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -3613,10 +3604,10 @@
         <v>141</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -3627,10 +3618,10 @@
         <v>142</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -3641,10 +3632,10 @@
         <v>143</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E92"/>
       <c r="F92"/>
@@ -3657,10 +3648,10 @@
         <v>144</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -3671,10 +3662,10 @@
         <v>145</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -3685,10 +3676,10 @@
         <v>146</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -3699,10 +3690,10 @@
         <v>147</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3713,10 +3704,10 @@
         <v>148</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3727,10 +3718,10 @@
         <v>149</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3741,10 +3732,10 @@
         <v>150</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3755,10 +3746,10 @@
         <v>151</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3769,10 +3760,10 @@
         <v>152</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3783,10 +3774,10 @@
         <v>153</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -3797,10 +3788,10 @@
         <v>154</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3811,10 +3802,10 @@
         <v>155</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3825,10 +3816,10 @@
         <v>156</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3839,10 +3830,10 @@
         <v>157</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3853,10 +3844,10 @@
         <v>158</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3867,336 +3858,292 @@
         <v>159</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>215</v>
+        <v>291</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>163</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>280</v>
+        <v>170</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>283</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="8" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C120" s="10" t="s">
+      <c r="B123" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C124" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="D120" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>291</v>
-      </c>
       <c r="D124" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" s="8" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>292</v>
+        <v>227</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D130" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:D127" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4449,21 +4396,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9CC4A80-4ECE-427A-8469-477A6F4D7F16}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B292CFA-1308-4FFE-AD60-D9B08AB144B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4488,9 +4434,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B292CFA-1308-4FFE-AD60-D9B08AB144B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9CC4A80-4ECE-427A-8469-477A6F4D7F16}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/datamap_1.xlsx
+++ b/datamap_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctoruno\Documents\GitHub\USA24-dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD4C9E0-DEC1-41A8-8F34-ADF45DAEDDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CABB36-D97E-4832-A28F-6DF056ECBD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="297">
   <si>
     <t>In your opinion, most judges decide cases according to:</t>
   </si>
@@ -1894,6 +1894,19 @@
   </si>
   <si>
     <t>USA_q22f</t>
+  </si>
+  <si>
+    <t>USA_vote</t>
+  </si>
+  <si>
+    <t>Do you plan to vote in the upcoming presidential election?</t>
+  </si>
+  <si>
+    <t>1=Yes 
+2=No
+3=Maybe
+98=Don’t know
+99=Prefer not to say</t>
   </si>
 </sst>
 </file>
@@ -2336,11 +2349,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I117" sqref="I117"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4127,6 +4140,20 @@
         <v>290</v>
       </c>
       <c r="D127" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D128" s="10" t="s">
         <v>259</v>
       </c>
     </row>

--- a/datamap_1.xlsx
+++ b/datamap_1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctoruno\Documents\GitHub\USA24-dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CABB36-D97E-4832-A28F-6DF056ECBD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01348C62-6469-429A-8844-97433F376B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Map" sheetId="18" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Map'!$A$1:$D$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Map'!$A$1:$D$130</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="304">
   <si>
     <t>In your opinion, most judges decide cases according to:</t>
   </si>
@@ -1376,13 +1376,7 @@
     <t>USA_q21i_G1</t>
   </si>
   <si>
-    <t>USA_q21j_G1</t>
-  </si>
-  <si>
     <t>USA_q21k_G1</t>
-  </si>
-  <si>
-    <t>USA_ q21a_G2</t>
   </si>
   <si>
     <t>USA_q21b_G2</t>
@@ -1907,6 +1901,38 @@
 3=Maybe
 98=Don’t know
 99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>USA_q18a</t>
+  </si>
+  <si>
+    <t>The future of the United States. In your opinion, how important is the rule of law to:</t>
+  </si>
+  <si>
+    <t>1=Essential
+2=Important
+3=Not so important
+4=Not important at all
+98=Don’t know
+99=Prefer not to say</t>
+  </si>
+  <si>
+    <t>USA_q18b</t>
+  </si>
+  <si>
+    <t>US democracy. In your opinion, how important is the rule of law to:</t>
+  </si>
+  <si>
+    <t>USA_q18c</t>
+  </si>
+  <si>
+    <t>Your own life. In your opinion, how important is the rule of law to:</t>
+  </si>
+  <si>
+    <t>USA_q21a_G2</t>
+  </si>
+  <si>
+    <t>USA_q21j_merge</t>
   </si>
 </sst>
 </file>
@@ -2002,7 +2028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2033,6 +2059,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2349,11 +2384,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C127" sqref="C127"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2365,16 +2400,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2385,10 +2420,10 @@
         <v>85</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2399,10 +2434,10 @@
         <v>86</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2413,10 +2448,10 @@
         <v>87</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2427,10 +2462,10 @@
         <v>88</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2441,10 +2476,10 @@
         <v>89</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2455,10 +2490,10 @@
         <v>90</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2469,10 +2504,10 @@
         <v>91</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2483,10 +2518,10 @@
         <v>92</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2497,10 +2532,10 @@
         <v>93</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2511,10 +2546,10 @@
         <v>94</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="9" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2525,10 +2560,10 @@
         <v>113</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2539,10 +2574,10 @@
         <v>95</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2553,10 +2588,10 @@
         <v>96</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2567,10 +2602,10 @@
         <v>97</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2581,10 +2616,10 @@
         <v>98</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2595,10 +2630,10 @@
         <v>99</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2609,10 +2644,10 @@
         <v>100</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2623,10 +2658,10 @@
         <v>101</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="9" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2637,10 +2672,10 @@
         <v>114</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -2651,10 +2686,10 @@
         <v>102</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -2665,10 +2700,10 @@
         <v>103</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -2679,10 +2714,10 @@
         <v>104</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -2693,10 +2728,10 @@
         <v>105</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -2707,10 +2742,10 @@
         <v>106</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -2721,10 +2756,10 @@
         <v>115</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2735,10 +2770,10 @@
         <v>108</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2749,10 +2784,10 @@
         <v>107</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -2763,24 +2798,24 @@
         <v>0</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2791,10 +2826,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2805,10 +2840,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2819,10 +2854,10 @@
         <v>9</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2833,10 +2868,10 @@
         <v>116</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2847,10 +2882,10 @@
         <v>17</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2861,10 +2896,10 @@
         <v>10</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2875,10 +2910,10 @@
         <v>18</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2889,10 +2924,10 @@
         <v>11</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2903,10 +2938,10 @@
         <v>12</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2917,10 +2952,10 @@
         <v>3</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2931,10 +2966,10 @@
         <v>4</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2945,10 +2980,10 @@
         <v>5</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2959,10 +2994,10 @@
         <v>25</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2973,10 +3008,10 @@
         <v>6</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -2987,10 +3022,10 @@
         <v>7</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3001,10 +3036,10 @@
         <v>8</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -3015,10 +3050,10 @@
         <v>19</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3029,10 +3064,10 @@
         <v>117</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3043,10 +3078,10 @@
         <v>118</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3057,10 +3092,10 @@
         <v>119</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3071,10 +3106,10 @@
         <v>120</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3085,10 +3120,10 @@
         <v>121</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3099,10 +3134,10 @@
         <v>122</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3113,10 +3148,10 @@
         <v>123</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3127,10 +3162,10 @@
         <v>124</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -3141,10 +3176,10 @@
         <v>125</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -3155,10 +3190,10 @@
         <v>126</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3169,10 +3204,10 @@
         <v>109</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3183,10 +3218,10 @@
         <v>110</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3197,10 +3232,10 @@
         <v>111</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3211,10 +3246,10 @@
         <v>112</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3225,10 +3260,10 @@
         <v>24</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3239,10 +3274,10 @@
         <v>23</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
@@ -3253,10 +3288,10 @@
         <v>22</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -3267,10 +3302,10 @@
         <v>125</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -3281,10 +3316,10 @@
         <v>126</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -3295,10 +3330,10 @@
         <v>82</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -3309,10 +3344,10 @@
         <v>83</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -3323,10 +3358,10 @@
         <v>84</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -3337,10 +3372,10 @@
         <v>127</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
@@ -3351,829 +3386,862 @@
         <v>128</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>268</v>
+      <c r="A72" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>297</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>268</v>
+      <c r="A73" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>297</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>268</v>
+      <c r="A74" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>297</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="D78" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C78" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="C81" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="C82" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C80" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="8" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="C83" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="8" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C81" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>274</v>
+      <c r="C84" s="11" t="s">
+        <v>278</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>274</v>
+        <v>140</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>272</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="E92"/>
-      <c r="F92"/>
+        <v>253</v>
+      </c>
     </row>
     <row r="93" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>198</v>
+        <v>303</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>274</v>
+        <v>143</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>255</v>
       </c>
+      <c r="E95"/>
+      <c r="F95"/>
     </row>
     <row r="96" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>200</v>
+        <v>302</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>274</v>
+        <v>151</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>272</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>274</v>
+        <v>154</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>291</v>
+        <v>210</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>274</v>
+        <v>159</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>272</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>215</v>
+        <v>289</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>274</v>
+        <v>162</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C116" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="C119" s="10" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C120" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B121" s="3" t="s">
+      <c r="C123" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C121" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" s="8" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="C124" s="10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="8" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="B130" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C130" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="D125" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="D130" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C131" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>259</v>
+      <c r="D131" s="10" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D127" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:D130" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3620e9c0d1a16779aea146adda0186f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2afd3ea0446edf26a13b3c7fc9e6232" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -4422,6 +4490,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4434,14 +4511,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B292CFA-1308-4FFE-AD60-D9B08AB144B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ADDF804-F9F2-4A70-964D-3F4BFBAAA370}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4460,6 +4529,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B292CFA-1308-4FFE-AD60-D9B08AB144B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9CC4A80-4ECE-427A-8469-477A6F4D7F16}">
   <ds:schemaRefs>
